--- a/Trinkgeld_Tabellen/Trinkgelder_Verteilung_Juni.xlsx
+++ b/Trinkgeld_Tabellen/Trinkgelder_Verteilung_Juni.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasschmidt/CodingProjects/neckarwave_scripts/Trinkgeld_Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2360FF8C-6FF2-EB44-966D-C5217B7867DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48055BE-7A7E-A745-BB38-16403790049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5680" yWindow="500" windowWidth="27040" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:M998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
